--- a/Tai lieu/Giai doan 3/Thiết kế chi tiết màn chi tiết sản phẩm.xlsx
+++ b/Tai lieu/Giai doan 3/Thiết kế chi tiết màn chi tiết sản phẩm.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Kỹ thuật lập trình oop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tài liệu thiết kế\Tai lieu\Giai doan 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="147">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -49,9 +49,6 @@
   <si>
     <t>Người tạo</t>
     <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>TrungNH</t>
   </si>
   <si>
     <t>Ngày tạo</t>
@@ -3107,16 +3104,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>154577</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>125187</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>18507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>53341</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3125,8 +3122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="154577" y="879567"/>
-          <a:ext cx="7343504" cy="4263934"/>
+          <a:off x="192677" y="1138647"/>
+          <a:ext cx="7427324" cy="4263934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3171,15 +3168,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>39187</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33747</xdr:rowOff>
+      <xdr:colOff>46807</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>160016</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>64226</xdr:rowOff>
+      <xdr:colOff>167636</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>170906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3202,7 +3199,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="343987" y="1153887"/>
+          <a:off x="351607" y="1443447"/>
           <a:ext cx="6963589" cy="3870959"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3480,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW158"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT121" sqref="AT121:AW121"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE49" sqref="AE49:AI50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3570,7 +3567,7 @@
       <c r="Y1" s="187"/>
       <c r="Z1" s="188"/>
       <c r="AA1" s="192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB1" s="177"/>
       <c r="AC1" s="177"/>
@@ -3588,12 +3585,12 @@
       </c>
       <c r="AN1" s="161"/>
       <c r="AO1" s="162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP1" s="163"/>
       <c r="AQ1" s="164"/>
       <c r="AR1" s="160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS1" s="161"/>
       <c r="AT1" s="165">
@@ -3643,14 +3640,14 @@
       <c r="AK2" s="180"/>
       <c r="AL2" s="181"/>
       <c r="AM2" s="168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN2" s="169"/>
       <c r="AO2" s="170"/>
       <c r="AP2" s="171"/>
       <c r="AQ2" s="172"/>
       <c r="AR2" s="168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS2" s="169"/>
       <c r="AT2" s="173"/>
@@ -3681,14 +3678,14 @@
       <c r="T3" s="183"/>
       <c r="U3" s="184"/>
       <c r="V3" s="194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W3" s="195"/>
       <c r="X3" s="195"/>
       <c r="Y3" s="195"/>
       <c r="Z3" s="196"/>
       <c r="AA3" s="197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB3" s="198"/>
       <c r="AC3" s="198"/>
@@ -3697,14 +3694,14 @@
       <c r="AF3" s="198"/>
       <c r="AG3" s="199"/>
       <c r="AH3" s="200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI3" s="201"/>
       <c r="AJ3" s="201"/>
       <c r="AK3" s="201"/>
       <c r="AL3" s="202"/>
       <c r="AM3" s="157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN3" s="158"/>
       <c r="AO3" s="158"/>
@@ -3720,7 +3717,7 @@
     <row r="4" spans="1:49" ht="15" thickTop="1"/>
     <row r="13" spans="1:49">
       <c r="B13" s="293" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="294"/>
       <c r="D13" s="294"/>
@@ -3967,7 +3964,7 @@
     </row>
     <row r="23" spans="2:48">
       <c r="B23" s="295" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="295"/>
       <c r="D23" s="295"/>
@@ -4165,7 +4162,7 @@
     </row>
     <row r="30" spans="2:48">
       <c r="R30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -4176,7 +4173,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -4188,7 +4185,7 @@
     </row>
     <row r="31" spans="2:48">
       <c r="R31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -4199,7 +4196,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
@@ -4211,7 +4208,7 @@
     </row>
     <row r="32" spans="2:48">
       <c r="R32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -4222,7 +4219,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
@@ -4234,7 +4231,7 @@
     </row>
     <row r="33" spans="1:49">
       <c r="R33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="2"/>
@@ -4245,7 +4242,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
@@ -4257,7 +4254,7 @@
     </row>
     <row r="34" spans="1:49">
       <c r="R34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="2"/>
@@ -4278,7 +4275,7 @@
     </row>
     <row r="35" spans="1:49">
       <c r="R35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -4334,7 +4331,7 @@
       <c r="Y40" s="187"/>
       <c r="Z40" s="188"/>
       <c r="AA40" s="192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB40" s="177"/>
       <c r="AC40" s="177"/>
@@ -4352,12 +4349,12 @@
       </c>
       <c r="AN40" s="161"/>
       <c r="AO40" s="162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP40" s="163"/>
       <c r="AQ40" s="164"/>
       <c r="AR40" s="160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS40" s="161"/>
       <c r="AT40" s="165">
@@ -4407,14 +4404,14 @@
       <c r="AK41" s="180"/>
       <c r="AL41" s="181"/>
       <c r="AM41" s="168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN41" s="169"/>
       <c r="AO41" s="170"/>
       <c r="AP41" s="171"/>
       <c r="AQ41" s="172"/>
       <c r="AR41" s="168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS41" s="169"/>
       <c r="AT41" s="173"/>
@@ -4445,14 +4442,14 @@
       <c r="T42" s="183"/>
       <c r="U42" s="184"/>
       <c r="V42" s="194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W42" s="195"/>
       <c r="X42" s="195"/>
       <c r="Y42" s="195"/>
       <c r="Z42" s="196"/>
       <c r="AA42" s="197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB42" s="198"/>
       <c r="AC42" s="198"/>
@@ -4461,14 +4458,14 @@
       <c r="AF42" s="198"/>
       <c r="AG42" s="199"/>
       <c r="AH42" s="200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI42" s="201"/>
       <c r="AJ42" s="201"/>
       <c r="AK42" s="201"/>
       <c r="AL42" s="202"/>
       <c r="AM42" s="157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN42" s="158"/>
       <c r="AO42" s="158"/>
@@ -4484,23 +4481,23 @@
     <row r="43" spans="1:49" ht="15" thickTop="1"/>
     <row r="45" spans="1:49">
       <c r="B45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:49">
       <c r="B47" s="275" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="276"/>
       <c r="D47" s="279" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E47" s="280"/>
       <c r="F47" s="280"/>
       <c r="G47" s="280"/>
       <c r="H47" s="281"/>
       <c r="I47" s="275" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J47" s="276"/>
       <c r="K47" s="276"/>
@@ -4520,7 +4517,7 @@
       <c r="Y47" s="276"/>
       <c r="Z47" s="285"/>
       <c r="AA47" s="279" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB47" s="280"/>
       <c r="AC47" s="280"/>
@@ -4575,27 +4572,27 @@
       <c r="AC48" s="283"/>
       <c r="AD48" s="284"/>
       <c r="AE48" s="287" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF48" s="288"/>
       <c r="AG48" s="288"/>
       <c r="AH48" s="288"/>
       <c r="AI48" s="289"/>
       <c r="AJ48" s="287" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AK48" s="288"/>
       <c r="AL48" s="288"/>
       <c r="AM48" s="289"/>
       <c r="AN48" s="287" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO48" s="288"/>
       <c r="AP48" s="288"/>
       <c r="AQ48" s="288"/>
       <c r="AR48" s="289"/>
       <c r="AS48" s="287" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AT48" s="288"/>
       <c r="AU48" s="288"/>
@@ -4614,7 +4611,7 @@
       <c r="G49" s="243"/>
       <c r="H49" s="244"/>
       <c r="I49" s="269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J49" s="270"/>
       <c r="K49" s="270"/>
@@ -4634,7 +4631,7 @@
       <c r="Y49" s="270"/>
       <c r="Z49" s="271"/>
       <c r="AA49" s="236" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AB49" s="237"/>
       <c r="AC49" s="237"/>
@@ -6116,7 +6113,7 @@
       <c r="Y81" s="187"/>
       <c r="Z81" s="188"/>
       <c r="AA81" s="192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB81" s="177"/>
       <c r="AC81" s="177"/>
@@ -6134,12 +6131,12 @@
       </c>
       <c r="AN81" s="161"/>
       <c r="AO81" s="162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP81" s="163"/>
       <c r="AQ81" s="164"/>
       <c r="AR81" s="160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS81" s="161"/>
       <c r="AT81" s="165">
@@ -6189,14 +6186,14 @@
       <c r="AK82" s="180"/>
       <c r="AL82" s="181"/>
       <c r="AM82" s="168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN82" s="169"/>
       <c r="AO82" s="170"/>
       <c r="AP82" s="171"/>
       <c r="AQ82" s="172"/>
       <c r="AR82" s="168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS82" s="169"/>
       <c r="AT82" s="173"/>
@@ -6227,14 +6224,14 @@
       <c r="T83" s="183"/>
       <c r="U83" s="184"/>
       <c r="V83" s="194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W83" s="195"/>
       <c r="X83" s="195"/>
       <c r="Y83" s="195"/>
       <c r="Z83" s="196"/>
       <c r="AA83" s="197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB83" s="198"/>
       <c r="AC83" s="198"/>
@@ -6243,14 +6240,14 @@
       <c r="AF83" s="198"/>
       <c r="AG83" s="199"/>
       <c r="AH83" s="200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI83" s="201"/>
       <c r="AJ83" s="201"/>
       <c r="AK83" s="201"/>
       <c r="AL83" s="202"/>
       <c r="AM83" s="157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN83" s="158"/>
       <c r="AO83" s="158"/>
@@ -6266,7 +6263,7 @@
     <row r="84" spans="1:49" ht="15" thickTop="1"/>
     <row r="85" spans="1:49">
       <c r="B85" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -6279,7 +6276,7 @@
     <row r="86" spans="1:49">
       <c r="B86" s="4"/>
       <c r="C86" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -6291,7 +6288,7 @@
     <row r="87" spans="1:49">
       <c r="B87" s="4"/>
       <c r="C87" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -6303,7 +6300,7 @@
     <row r="88" spans="1:49">
       <c r="B88" s="4"/>
       <c r="C88" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -6324,7 +6321,7 @@
     </row>
     <row r="90" spans="1:49">
       <c r="B90" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -6337,7 +6334,7 @@
     <row r="91" spans="1:49">
       <c r="B91" s="9"/>
       <c r="C91" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
@@ -6358,7 +6355,7 @@
     </row>
     <row r="93" spans="1:49">
       <c r="B93" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="14"/>
@@ -6371,7 +6368,7 @@
     <row r="94" spans="1:49">
       <c r="B94" s="9"/>
       <c r="C94" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="14"/>
@@ -6392,7 +6389,7 @@
     </row>
     <row r="96" spans="1:49">
       <c r="B96" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="10"/>
@@ -6405,7 +6402,7 @@
     <row r="97" spans="2:9">
       <c r="B97" s="8"/>
       <c r="C97" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="14"/>
@@ -6417,7 +6414,7 @@
     <row r="98" spans="2:9">
       <c r="B98" s="8"/>
       <c r="C98" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="16"/>
@@ -6428,7 +6425,7 @@
     </row>
     <row r="99" spans="2:9">
       <c r="B99" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="10"/>
@@ -6441,7 +6438,7 @@
     <row r="100" spans="2:9">
       <c r="B100" s="8"/>
       <c r="C100" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="7"/>
@@ -6487,7 +6484,7 @@
       <c r="Y121" s="187"/>
       <c r="Z121" s="188"/>
       <c r="AA121" s="192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB121" s="177"/>
       <c r="AC121" s="177"/>
@@ -6505,12 +6502,12 @@
       </c>
       <c r="AN121" s="161"/>
       <c r="AO121" s="162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP121" s="163"/>
       <c r="AQ121" s="164"/>
       <c r="AR121" s="160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS121" s="161"/>
       <c r="AT121" s="165">
@@ -6560,14 +6557,14 @@
       <c r="AK122" s="180"/>
       <c r="AL122" s="181"/>
       <c r="AM122" s="168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN122" s="169"/>
       <c r="AO122" s="170"/>
       <c r="AP122" s="171"/>
       <c r="AQ122" s="172"/>
       <c r="AR122" s="168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS122" s="169"/>
       <c r="AT122" s="173"/>
@@ -6598,14 +6595,14 @@
       <c r="T123" s="183"/>
       <c r="U123" s="184"/>
       <c r="V123" s="194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W123" s="195"/>
       <c r="X123" s="195"/>
       <c r="Y123" s="195"/>
       <c r="Z123" s="196"/>
       <c r="AA123" s="197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB123" s="198"/>
       <c r="AC123" s="198"/>
@@ -6614,14 +6611,14 @@
       <c r="AF123" s="198"/>
       <c r="AG123" s="199"/>
       <c r="AH123" s="200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI123" s="201"/>
       <c r="AJ123" s="201"/>
       <c r="AK123" s="201"/>
       <c r="AL123" s="202"/>
       <c r="AM123" s="157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN123" s="158"/>
       <c r="AO123" s="158"/>
@@ -6637,24 +6634,24 @@
     <row r="124" spans="1:49" ht="15" thickTop="1"/>
     <row r="125" spans="1:49">
       <c r="B125" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146" spans="4:48">
       <c r="D146" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E146" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="E146" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="F146" s="21"/>
       <c r="G146" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="22"/>
@@ -6671,11 +6668,11 @@
       <c r="T146" s="22"/>
       <c r="U146" s="21"/>
       <c r="V146" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W146" s="21"/>
       <c r="X146" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y146" s="24"/>
       <c r="Z146" s="24"/>
@@ -6707,18 +6704,18 @@
         <v>1</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F147" s="28"/>
       <c r="G147" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H147" s="30"/>
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
       <c r="K147" s="31"/>
       <c r="L147" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M147" s="30"/>
       <c r="N147" s="30"/>
@@ -6730,7 +6727,7 @@
       <c r="T147" s="30"/>
       <c r="U147" s="33"/>
       <c r="V147" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W147" s="28"/>
       <c r="X147" s="29"/>
@@ -7153,7 +7150,7 @@
     </row>
     <row r="158" spans="4:48">
       <c r="E158" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -7374,8 +7371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW191"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A173" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L191" sqref="L191"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A172" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AW15" sqref="AW15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7461,7 +7458,7 @@
       <c r="Y1" s="187"/>
       <c r="Z1" s="188"/>
       <c r="AA1" s="192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB1" s="177"/>
       <c r="AC1" s="177"/>
@@ -7479,12 +7476,12 @@
       </c>
       <c r="AN1" s="161"/>
       <c r="AO1" s="162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP1" s="163"/>
       <c r="AQ1" s="164"/>
       <c r="AR1" s="160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS1" s="161"/>
       <c r="AT1" s="165">
@@ -7534,14 +7531,14 @@
       <c r="AK2" s="180"/>
       <c r="AL2" s="181"/>
       <c r="AM2" s="168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN2" s="169"/>
       <c r="AO2" s="170"/>
       <c r="AP2" s="171"/>
       <c r="AQ2" s="172"/>
       <c r="AR2" s="168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS2" s="169"/>
       <c r="AT2" s="173"/>
@@ -7572,14 +7569,14 @@
       <c r="T3" s="183"/>
       <c r="U3" s="184"/>
       <c r="V3" s="194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W3" s="195"/>
       <c r="X3" s="195"/>
       <c r="Y3" s="195"/>
       <c r="Z3" s="196"/>
       <c r="AA3" s="197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB3" s="198"/>
       <c r="AC3" s="198"/>
@@ -7588,14 +7585,14 @@
       <c r="AF3" s="198"/>
       <c r="AG3" s="199"/>
       <c r="AH3" s="200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI3" s="201"/>
       <c r="AJ3" s="201"/>
       <c r="AK3" s="201"/>
       <c r="AL3" s="202"/>
       <c r="AM3" s="157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN3" s="158"/>
       <c r="AO3" s="158"/>
@@ -7611,7 +7608,7 @@
     <row r="4" spans="1:49" ht="15" thickTop="1"/>
     <row r="5" spans="1:49">
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:49">
@@ -7654,7 +7651,7 @@
       <c r="Y41" s="187"/>
       <c r="Z41" s="188"/>
       <c r="AA41" s="192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB41" s="177"/>
       <c r="AC41" s="177"/>
@@ -7672,12 +7669,12 @@
       </c>
       <c r="AN41" s="161"/>
       <c r="AO41" s="162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP41" s="163"/>
       <c r="AQ41" s="164"/>
       <c r="AR41" s="160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS41" s="161"/>
       <c r="AT41" s="165">
@@ -7727,14 +7724,14 @@
       <c r="AK42" s="180"/>
       <c r="AL42" s="181"/>
       <c r="AM42" s="168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN42" s="169"/>
       <c r="AO42" s="170"/>
       <c r="AP42" s="171"/>
       <c r="AQ42" s="172"/>
       <c r="AR42" s="168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS42" s="169"/>
       <c r="AT42" s="173"/>
@@ -7765,14 +7762,14 @@
       <c r="T43" s="183"/>
       <c r="U43" s="184"/>
       <c r="V43" s="194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W43" s="195"/>
       <c r="X43" s="195"/>
       <c r="Y43" s="195"/>
       <c r="Z43" s="196"/>
       <c r="AA43" s="197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB43" s="198"/>
       <c r="AC43" s="198"/>
@@ -7781,14 +7778,14 @@
       <c r="AF43" s="198"/>
       <c r="AG43" s="199"/>
       <c r="AH43" s="200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI43" s="201"/>
       <c r="AJ43" s="201"/>
       <c r="AK43" s="201"/>
       <c r="AL43" s="202"/>
       <c r="AM43" s="157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN43" s="158"/>
       <c r="AO43" s="158"/>
@@ -7804,20 +7801,20 @@
     <row r="44" spans="1:49" ht="15" thickTop="1"/>
     <row r="45" spans="1:49">
       <c r="B45" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:49">
       <c r="B47" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:49">
       <c r="B48" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -7825,39 +7822,39 @@
       <c r="G48" s="22"/>
       <c r="H48" s="21"/>
       <c r="I48" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
       <c r="P48" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q48" s="22"/>
       <c r="R48" s="21"/>
       <c r="S48" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T48" s="50"/>
       <c r="U48" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V48" s="24"/>
       <c r="W48" s="24"/>
       <c r="X48" s="50"/>
       <c r="Y48" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z48" s="50"/>
       <c r="AA48" s="23"/>
       <c r="AB48" s="24"/>
       <c r="AC48" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD48" s="24"/>
       <c r="AE48" s="24"/>
@@ -7883,7 +7880,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="53"/>
       <c r="E49" s="53"/>
@@ -7891,7 +7888,7 @@
       <c r="G49" s="54"/>
       <c r="H49" s="55"/>
       <c r="I49" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" s="54"/>
       <c r="K49" s="54"/>
@@ -7903,21 +7900,21 @@
       <c r="O49" s="54"/>
       <c r="P49" s="56"/>
       <c r="Q49" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R49" s="57"/>
       <c r="S49" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T49" s="59"/>
       <c r="U49" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V49" s="53"/>
       <c r="W49" s="53"/>
       <c r="X49" s="57"/>
       <c r="Y49" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z49" s="53"/>
       <c r="AA49" s="53"/>
@@ -7947,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" s="63"/>
       <c r="E50" s="63"/>
@@ -7955,7 +7952,7 @@
       <c r="G50" s="64"/>
       <c r="H50" s="65"/>
       <c r="I50" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J50" s="64"/>
       <c r="K50" s="64"/>
@@ -7969,7 +7966,7 @@
       <c r="Q50" s="64"/>
       <c r="R50" s="68"/>
       <c r="S50" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T50" s="70"/>
       <c r="U50" s="62"/>
@@ -8098,15 +8095,15 @@
     </row>
     <row r="54" spans="2:47">
       <c r="B54" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="2:47">
       <c r="B55" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="85"/>
       <c r="E55" s="85"/>
@@ -8118,7 +8115,7 @@
       <c r="K55" s="85"/>
       <c r="L55" s="86"/>
       <c r="M55" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N55" s="85"/>
       <c r="O55" s="85"/>
@@ -8130,7 +8127,7 @@
       <c r="U55" s="85"/>
       <c r="V55" s="86"/>
       <c r="W55" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X55" s="85"/>
       <c r="Y55" s="85"/>
@@ -8162,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D56" s="89"/>
       <c r="E56" s="89"/>
@@ -8174,7 +8171,7 @@
       <c r="K56" s="89"/>
       <c r="L56" s="90"/>
       <c r="M56" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N56" s="92"/>
       <c r="O56" s="92"/>
@@ -8216,7 +8213,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="97"/>
       <c r="E57" s="97"/>
@@ -8228,7 +8225,7 @@
       <c r="K57" s="97"/>
       <c r="L57" s="98"/>
       <c r="M57" s="96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N57" s="97"/>
       <c r="O57" s="97"/>
@@ -8270,7 +8267,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="102"/>
       <c r="E58" s="102"/>
@@ -8282,7 +8279,7 @@
       <c r="K58" s="102"/>
       <c r="L58" s="103"/>
       <c r="M58" s="104" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N58" s="105"/>
       <c r="O58" s="105"/>
@@ -8356,7 +8353,7 @@
       <c r="Y81" s="187"/>
       <c r="Z81" s="188"/>
       <c r="AA81" s="192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB81" s="177"/>
       <c r="AC81" s="177"/>
@@ -8374,12 +8371,12 @@
       </c>
       <c r="AN81" s="161"/>
       <c r="AO81" s="162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP81" s="163"/>
       <c r="AQ81" s="164"/>
       <c r="AR81" s="160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS81" s="161"/>
       <c r="AT81" s="165">
@@ -8429,14 +8426,14 @@
       <c r="AK82" s="180"/>
       <c r="AL82" s="181"/>
       <c r="AM82" s="168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN82" s="169"/>
       <c r="AO82" s="170"/>
       <c r="AP82" s="171"/>
       <c r="AQ82" s="172"/>
       <c r="AR82" s="168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS82" s="169"/>
       <c r="AT82" s="173"/>
@@ -8467,14 +8464,14 @@
       <c r="T83" s="183"/>
       <c r="U83" s="184"/>
       <c r="V83" s="194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W83" s="195"/>
       <c r="X83" s="195"/>
       <c r="Y83" s="195"/>
       <c r="Z83" s="196"/>
       <c r="AA83" s="197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB83" s="198"/>
       <c r="AC83" s="198"/>
@@ -8483,14 +8480,14 @@
       <c r="AF83" s="198"/>
       <c r="AG83" s="199"/>
       <c r="AH83" s="200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI83" s="201"/>
       <c r="AJ83" s="201"/>
       <c r="AK83" s="201"/>
       <c r="AL83" s="202"/>
       <c r="AM83" s="157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN83" s="158"/>
       <c r="AO83" s="158"/>
@@ -8506,7 +8503,7 @@
     <row r="84" spans="1:49" ht="15" thickTop="1"/>
     <row r="85" spans="1:49">
       <c r="B85" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -8520,7 +8517,7 @@
     <row r="86" spans="1:49">
       <c r="B86" s="4"/>
       <c r="C86" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -8534,7 +8531,7 @@
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
       <c r="D87" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -8557,7 +8554,7 @@
     <row r="89" spans="1:49">
       <c r="B89" s="4"/>
       <c r="C89" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -8571,7 +8568,7 @@
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -8594,7 +8591,7 @@
     <row r="92" spans="1:49">
       <c r="B92" s="4"/>
       <c r="C92" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -8608,7 +8605,7 @@
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -8621,7 +8618,7 @@
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -8634,7 +8631,7 @@
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -8657,7 +8654,7 @@
     <row r="97" spans="2:10">
       <c r="B97" s="4"/>
       <c r="C97" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -8670,30 +8667,30 @@
     <row r="98" spans="2:10">
       <c r="C98" s="5"/>
       <c r="D98" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="2:10">
       <c r="C99" s="5"/>
       <c r="D99" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="C100" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="2:10">
       <c r="D101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="2:10">
       <c r="C102" s="5"/>
       <c r="D102" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="2:10">
@@ -8702,7 +8699,7 @@
     </row>
     <row r="104" spans="2:10">
       <c r="C104" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D104" s="7"/>
     </row>
@@ -8712,14 +8709,14 @@
     </row>
     <row r="106" spans="2:10">
       <c r="C106" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="2:10">
       <c r="C107" s="5"/>
       <c r="D107" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:49" ht="15" thickBot="1"/>
@@ -8759,7 +8756,7 @@
       <c r="Y121" s="187"/>
       <c r="Z121" s="188"/>
       <c r="AA121" s="192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB121" s="177"/>
       <c r="AC121" s="177"/>
@@ -8777,12 +8774,12 @@
       </c>
       <c r="AN121" s="161"/>
       <c r="AO121" s="162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP121" s="163"/>
       <c r="AQ121" s="164"/>
       <c r="AR121" s="160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS121" s="161"/>
       <c r="AT121" s="165">
@@ -8832,14 +8829,14 @@
       <c r="AK122" s="180"/>
       <c r="AL122" s="181"/>
       <c r="AM122" s="168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN122" s="169"/>
       <c r="AO122" s="170"/>
       <c r="AP122" s="171"/>
       <c r="AQ122" s="172"/>
       <c r="AR122" s="168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS122" s="169"/>
       <c r="AT122" s="173"/>
@@ -8870,14 +8867,14 @@
       <c r="T123" s="183"/>
       <c r="U123" s="184"/>
       <c r="V123" s="194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W123" s="195"/>
       <c r="X123" s="195"/>
       <c r="Y123" s="195"/>
       <c r="Z123" s="196"/>
       <c r="AA123" s="197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB123" s="198"/>
       <c r="AC123" s="198"/>
@@ -8886,14 +8883,14 @@
       <c r="AF123" s="198"/>
       <c r="AG123" s="199"/>
       <c r="AH123" s="200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI123" s="201"/>
       <c r="AJ123" s="201"/>
       <c r="AK123" s="201"/>
       <c r="AL123" s="202"/>
       <c r="AM123" s="157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN123" s="158"/>
       <c r="AO123" s="158"/>
@@ -8909,7 +8906,7 @@
     <row r="124" spans="1:49" ht="15" thickTop="1"/>
     <row r="125" spans="1:49">
       <c r="B125" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -8928,7 +8925,7 @@
     <row r="126" spans="1:49">
       <c r="B126" s="4"/>
       <c r="C126" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -8942,7 +8939,7 @@
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
       <c r="D127" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
@@ -8953,17 +8950,17 @@
     </row>
     <row r="128" spans="1:49">
       <c r="E128" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="3:46">
       <c r="E129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="3:46">
       <c r="D131" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E131" s="109"/>
       <c r="F131" s="109"/>
@@ -9010,10 +9007,10 @@
     </row>
     <row r="132" spans="3:46">
       <c r="D132" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E132" s="110" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F132" s="85"/>
       <c r="G132" s="85"/>
@@ -9023,7 +9020,7 @@
       <c r="K132" s="85"/>
       <c r="L132" s="86"/>
       <c r="M132" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N132" s="85"/>
       <c r="O132" s="85"/>
@@ -9041,7 +9038,7 @@
       <c r="AA132" s="85"/>
       <c r="AB132" s="85"/>
       <c r="AC132" s="110" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD132" s="85"/>
       <c r="AE132" s="85"/>
@@ -9051,12 +9048,12 @@
       <c r="AI132" s="85"/>
       <c r="AJ132" s="85"/>
       <c r="AK132" s="110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AL132" s="86"/>
       <c r="AM132" s="110"/>
       <c r="AN132" s="110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO132" s="85"/>
       <c r="AP132" s="85"/>
@@ -9070,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F133" s="92"/>
       <c r="G133" s="92"/>
@@ -9080,7 +9077,7 @@
       <c r="K133" s="92"/>
       <c r="L133" s="93"/>
       <c r="M133" s="92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N133" s="92"/>
       <c r="O133" s="92"/>
@@ -9098,7 +9095,7 @@
       <c r="AA133" s="92"/>
       <c r="AB133" s="92"/>
       <c r="AC133" s="92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD133" s="92"/>
       <c r="AE133" s="92"/>
@@ -9108,7 +9105,7 @@
       <c r="AI133" s="92"/>
       <c r="AJ133" s="92"/>
       <c r="AK133" s="91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL133" s="92"/>
       <c r="AM133" s="112"/>
@@ -9125,7 +9122,7 @@
         <v>2</v>
       </c>
       <c r="E134" s="104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F134" s="105"/>
       <c r="G134" s="105"/>
@@ -9135,7 +9132,7 @@
       <c r="K134" s="105"/>
       <c r="L134" s="106"/>
       <c r="M134" s="105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N134" s="105"/>
       <c r="O134" s="105"/>
@@ -9153,7 +9150,7 @@
       <c r="AA134" s="105"/>
       <c r="AB134" s="105"/>
       <c r="AC134" s="104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD134" s="115"/>
       <c r="AE134" s="105"/>
@@ -9163,7 +9160,7 @@
       <c r="AI134" s="105"/>
       <c r="AJ134" s="105"/>
       <c r="AK134" s="104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL134" s="105"/>
       <c r="AM134" s="106"/>
@@ -9222,7 +9219,7 @@
     </row>
     <row r="136" spans="3:46">
       <c r="D136" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -9269,10 +9266,10 @@
     </row>
     <row r="137" spans="3:46">
       <c r="D137" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E137" s="110" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F137" s="85"/>
       <c r="G137" s="85"/>
@@ -9282,7 +9279,7 @@
       <c r="K137" s="85"/>
       <c r="L137" s="86"/>
       <c r="M137" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N137" s="85"/>
       <c r="O137" s="85"/>
@@ -9300,7 +9297,7 @@
       <c r="AA137" s="85"/>
       <c r="AB137" s="85"/>
       <c r="AC137" s="110" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD137" s="85"/>
       <c r="AE137" s="85"/>
@@ -9310,12 +9307,12 @@
       <c r="AI137" s="85"/>
       <c r="AJ137" s="85"/>
       <c r="AK137" s="110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AL137" s="86"/>
       <c r="AM137" s="110"/>
       <c r="AN137" s="110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO137" s="85"/>
       <c r="AP137" s="85"/>
@@ -9329,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F138" s="92"/>
       <c r="G138" s="92"/>
@@ -9339,7 +9336,7 @@
       <c r="K138" s="92"/>
       <c r="L138" s="92"/>
       <c r="M138" s="91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N138" s="92"/>
       <c r="O138" s="92"/>
@@ -9365,7 +9362,7 @@
       <c r="AI138" s="92"/>
       <c r="AJ138" s="92"/>
       <c r="AK138" s="91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL138" s="92"/>
       <c r="AM138" s="93"/>
@@ -9382,7 +9379,7 @@
         <v>2</v>
       </c>
       <c r="E139" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F139" s="97"/>
       <c r="G139" s="97"/>
@@ -9392,7 +9389,7 @@
       <c r="K139" s="97"/>
       <c r="L139" s="97"/>
       <c r="M139" s="125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N139" s="97"/>
       <c r="O139" s="97"/>
@@ -9418,7 +9415,7 @@
       <c r="AI139" s="97"/>
       <c r="AJ139" s="97"/>
       <c r="AK139" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL139" s="97"/>
       <c r="AM139" s="98"/>
@@ -9435,7 +9432,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F140" s="105"/>
       <c r="G140" s="105"/>
@@ -9445,7 +9442,7 @@
       <c r="K140" s="105"/>
       <c r="L140" s="105"/>
       <c r="M140" s="126" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N140" s="105"/>
       <c r="O140" s="105"/>
@@ -9471,7 +9468,7 @@
       <c r="AI140" s="105"/>
       <c r="AJ140" s="105"/>
       <c r="AK140" s="104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL140" s="105"/>
       <c r="AM140" s="106"/>
@@ -9488,29 +9485,29 @@
     </row>
     <row r="142" spans="3:46">
       <c r="C142" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="3:46">
       <c r="D143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="3:46">
       <c r="C144" s="5"/>
       <c r="D144" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="3:47">
       <c r="C145" s="5"/>
       <c r="D145" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="3:47">
       <c r="C146" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D146" s="7"/>
       <c r="AA146" s="5"/>
@@ -9518,13 +9515,13 @@
     <row r="147" spans="3:47">
       <c r="C147" s="5"/>
       <c r="D147" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="3:47">
       <c r="C148" s="5"/>
       <c r="D148" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA148" s="5"/>
       <c r="AB148" s="7"/>
@@ -9532,7 +9529,7 @@
     <row r="149" spans="3:47" ht="14.4" customHeight="1">
       <c r="C149" s="5"/>
       <c r="D149" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E149" s="127"/>
       <c r="F149" s="127"/>
@@ -9547,10 +9544,10 @@
     </row>
     <row r="150" spans="3:47">
       <c r="C150" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="D150" s="131" t="s">
         <v>131</v>
-      </c>
-      <c r="D150" s="131" t="s">
-        <v>132</v>
       </c>
       <c r="E150" s="130"/>
       <c r="F150" s="130"/>
@@ -9560,7 +9557,7 @@
       <c r="J150" s="135"/>
       <c r="K150" s="135"/>
       <c r="L150" s="129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M150" s="130"/>
       <c r="N150" s="130"/>
@@ -9584,7 +9581,7 @@
       <c r="AF150" s="137"/>
       <c r="AG150" s="137"/>
       <c r="AH150" s="138" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI150" s="137"/>
       <c r="AJ150" s="137"/>
@@ -9603,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E151" s="132"/>
       <c r="F151" s="132"/>
@@ -9613,7 +9610,7 @@
       <c r="J151" s="136"/>
       <c r="K151" s="136"/>
       <c r="L151" s="132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M151" s="132"/>
       <c r="N151" s="132"/>
@@ -9637,7 +9634,7 @@
       <c r="AF151" s="136"/>
       <c r="AG151" s="136"/>
       <c r="AH151" s="141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI151" s="136"/>
       <c r="AJ151" s="136"/>
@@ -9653,7 +9650,7 @@
     </row>
     <row r="152" spans="3:47">
       <c r="D152" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="153" spans="3:47">
@@ -9904,7 +9901,7 @@
       <c r="Y161" s="187"/>
       <c r="Z161" s="188"/>
       <c r="AA161" s="192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB161" s="177"/>
       <c r="AC161" s="177"/>
@@ -9922,12 +9919,12 @@
       </c>
       <c r="AN161" s="161"/>
       <c r="AO161" s="162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP161" s="163"/>
       <c r="AQ161" s="164"/>
       <c r="AR161" s="160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS161" s="161"/>
       <c r="AT161" s="165">
@@ -9977,14 +9974,14 @@
       <c r="AK162" s="180"/>
       <c r="AL162" s="181"/>
       <c r="AM162" s="168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN162" s="169"/>
       <c r="AO162" s="170"/>
       <c r="AP162" s="171"/>
       <c r="AQ162" s="172"/>
       <c r="AR162" s="168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS162" s="169"/>
       <c r="AT162" s="173"/>
@@ -10015,14 +10012,14 @@
       <c r="T163" s="183"/>
       <c r="U163" s="184"/>
       <c r="V163" s="194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W163" s="195"/>
       <c r="X163" s="195"/>
       <c r="Y163" s="195"/>
       <c r="Z163" s="196"/>
       <c r="AA163" s="197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB163" s="198"/>
       <c r="AC163" s="198"/>
@@ -10031,14 +10028,14 @@
       <c r="AF163" s="198"/>
       <c r="AG163" s="199"/>
       <c r="AH163" s="200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI163" s="201"/>
       <c r="AJ163" s="201"/>
       <c r="AK163" s="201"/>
       <c r="AL163" s="202"/>
       <c r="AM163" s="157" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN163" s="158"/>
       <c r="AO163" s="158"/>
@@ -10062,7 +10059,7 @@
     </row>
     <row r="165" spans="1:49">
       <c r="B165" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -10159,7 +10156,7 @@
     </row>
     <row r="167" spans="1:49">
       <c r="C167" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="118"/>
@@ -10209,7 +10206,7 @@
     <row r="168" spans="1:49">
       <c r="C168" s="5"/>
       <c r="D168" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E168" s="118"/>
       <c r="F168" s="118"/>
@@ -10258,7 +10255,7 @@
     <row r="169" spans="1:49">
       <c r="C169" s="5"/>
       <c r="D169" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E169" s="118"/>
       <c r="F169" s="118"/>
@@ -10307,17 +10304,17 @@
     <row r="170" spans="1:49">
       <c r="C170" s="5"/>
       <c r="D170" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN170" s="5"/>
       <c r="AO170" s="7"/>
     </row>
     <row r="171" spans="1:49">
       <c r="C171" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="D171" s="131" t="s">
         <v>131</v>
-      </c>
-      <c r="D171" s="131" t="s">
-        <v>132</v>
       </c>
       <c r="E171" s="130"/>
       <c r="F171" s="130"/>
@@ -10327,7 +10324,7 @@
       <c r="J171" s="135"/>
       <c r="K171" s="135"/>
       <c r="L171" s="129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M171" s="130"/>
       <c r="N171" s="130"/>
@@ -10351,7 +10348,7 @@
       <c r="AF171" s="137"/>
       <c r="AG171" s="137"/>
       <c r="AH171" s="138" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI171" s="137"/>
       <c r="AJ171" s="137"/>
@@ -10370,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E172" s="132"/>
       <c r="F172" s="132"/>
@@ -10380,7 +10377,7 @@
       <c r="J172" s="136"/>
       <c r="K172" s="136"/>
       <c r="L172" s="132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M172" s="132"/>
       <c r="N172" s="132"/>
@@ -10404,7 +10401,7 @@
       <c r="AF172" s="136"/>
       <c r="AG172" s="136"/>
       <c r="AH172" s="141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI172" s="136"/>
       <c r="AJ172" s="136"/>
@@ -10421,7 +10418,7 @@
     <row r="173" spans="1:49">
       <c r="C173" s="5"/>
       <c r="D173" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN173" s="5"/>
       <c r="AO173" s="7"/>
@@ -10434,7 +10431,7 @@
     </row>
     <row r="175" spans="1:49">
       <c r="C175" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D175" s="7"/>
       <c r="AN175" s="5"/>
@@ -10443,19 +10440,19 @@
     <row r="176" spans="1:49">
       <c r="C176" s="5"/>
       <c r="D176" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="177" spans="3:45">
       <c r="C177" s="5"/>
       <c r="D177" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="178" spans="3:45">
       <c r="C178" s="5"/>
       <c r="D178" s="120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="179" spans="3:45">
@@ -10464,20 +10461,20 @@
     </row>
     <row r="180" spans="3:45">
       <c r="C180" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D180" s="7"/>
     </row>
     <row r="181" spans="3:45">
       <c r="C181" s="5"/>
       <c r="D181" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="182" spans="3:45">
       <c r="C182" s="5"/>
       <c r="D182" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y182" s="5"/>
       <c r="Z182" s="7"/>
@@ -10487,7 +10484,7 @@
     <row r="183" spans="3:45">
       <c r="C183" s="5"/>
       <c r="D183" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y183" s="5"/>
       <c r="Z183" s="7"/>
@@ -10496,10 +10493,10 @@
     </row>
     <row r="184" spans="3:45">
       <c r="C184" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="D184" s="144" t="s">
         <v>131</v>
-      </c>
-      <c r="D184" s="144" t="s">
-        <v>132</v>
       </c>
       <c r="E184" s="145"/>
       <c r="F184" s="145"/>
@@ -10509,7 +10506,7 @@
       <c r="J184" s="145"/>
       <c r="K184" s="145"/>
       <c r="L184" s="144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M184" s="145"/>
       <c r="N184" s="145"/>
@@ -10533,7 +10530,7 @@
       <c r="AF184" s="146"/>
       <c r="AG184" s="146"/>
       <c r="AH184" s="144" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI184" s="146"/>
       <c r="AJ184" s="146"/>
@@ -10552,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E185" s="150"/>
       <c r="F185" s="150"/>
@@ -10562,7 +10559,7 @@
       <c r="J185" s="151"/>
       <c r="K185" s="152"/>
       <c r="L185" s="149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M185" s="150"/>
       <c r="N185" s="150"/>
@@ -10586,7 +10583,7 @@
       <c r="AF185" s="153"/>
       <c r="AG185" s="154"/>
       <c r="AH185" s="142" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI185" s="155"/>
       <c r="AJ185" s="155"/>
@@ -10602,7 +10599,7 @@
     </row>
     <row r="187" spans="3:45">
       <c r="C187" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D187" s="7"/>
       <c r="AK187" s="5"/>
@@ -10611,7 +10608,7 @@
     <row r="188" spans="3:45">
       <c r="C188" s="5"/>
       <c r="D188" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK188" s="5"/>
       <c r="AL188" s="7"/>
@@ -10619,17 +10616,17 @@
     <row r="189" spans="3:45">
       <c r="C189" s="5"/>
       <c r="D189" s="120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK189" s="5"/>
       <c r="AL189" s="120"/>
     </row>
     <row r="190" spans="3:45">
       <c r="C190" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="D190" s="144" t="s">
         <v>131</v>
-      </c>
-      <c r="D190" s="144" t="s">
-        <v>132</v>
       </c>
       <c r="E190" s="145"/>
       <c r="F190" s="145"/>
@@ -10639,7 +10636,7 @@
       <c r="J190" s="145"/>
       <c r="K190" s="145"/>
       <c r="L190" s="144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M190" s="145"/>
       <c r="N190" s="145"/>
@@ -10663,7 +10660,7 @@
       <c r="AF190" s="146"/>
       <c r="AG190" s="146"/>
       <c r="AH190" s="144" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI190" s="146"/>
       <c r="AJ190" s="146"/>
@@ -10682,7 +10679,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E191" s="150"/>
       <c r="F191" s="150"/>
@@ -10692,7 +10689,7 @@
       <c r="J191" s="151"/>
       <c r="K191" s="152"/>
       <c r="L191" s="149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M191" s="150"/>
       <c r="N191" s="150"/>
@@ -10716,7 +10713,7 @@
       <c r="AF191" s="153"/>
       <c r="AG191" s="154"/>
       <c r="AH191" s="142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI191" s="155"/>
       <c r="AJ191" s="155"/>

--- a/Tai lieu/Giai doan 3/Thiết kế chi tiết màn chi tiết sản phẩm.xlsx
+++ b/Tai lieu/Giai doan 3/Thiết kế chi tiết màn chi tiết sản phẩm.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27108"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Thiet-Ke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tài liệu thiết kế\Tai lieu\Giai doan 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0D5490-95C4-4AEC-81C3-E413C516556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Thiết_kế!$A$1:$AW$200</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Trang_bìa!$A$1:$AW$159</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="148">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -701,11 +700,23 @@
   <si>
     <t>2. Nhấn nút đánh giá</t>
   </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>mathang</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Table mặt hàng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -2478,11 +2489,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準_AP生産依頼 回答リスト画面" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準_基本要件仕様書_20061109" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準_基本設計書(FWIH105)" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="標準_AP生産依頼 回答リスト画面" xfId="3"/>
+    <cellStyle name="標準_基本要件仕様書_20061109" xfId="2"/>
+    <cellStyle name="標準_基本設計書(FWIH105)" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3473,61 +3484,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ8" sqref="AQ8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A133" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" customWidth="1"/>
-    <col min="8" max="9" width="1.5703125" customWidth="1"/>
-    <col min="10" max="10" width="1.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="4" width="1.6640625" customWidth="1"/>
+    <col min="5" max="5" width="1.44140625" customWidth="1"/>
+    <col min="6" max="6" width="1.5546875" customWidth="1"/>
+    <col min="7" max="7" width="1.44140625" customWidth="1"/>
+    <col min="8" max="9" width="1.5546875" customWidth="1"/>
+    <col min="10" max="10" width="1.109375" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="0.85546875" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" customWidth="1"/>
-    <col min="14" max="14" width="2.140625" customWidth="1"/>
+    <col min="12" max="12" width="0.88671875" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="2.109375" customWidth="1"/>
     <col min="15" max="15" width="1" customWidth="1"/>
-    <col min="16" max="16" width="1.85546875" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" customWidth="1"/>
-    <col min="20" max="20" width="2.28515625" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" customWidth="1"/>
-    <col min="22" max="22" width="2.5703125" customWidth="1"/>
-    <col min="23" max="23" width="2.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.88671875" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" customWidth="1"/>
+    <col min="18" max="18" width="3.5546875" customWidth="1"/>
+    <col min="19" max="19" width="2.5546875" customWidth="1"/>
+    <col min="20" max="20" width="2.33203125" customWidth="1"/>
+    <col min="21" max="21" width="2.88671875" customWidth="1"/>
+    <col min="22" max="22" width="2.5546875" customWidth="1"/>
+    <col min="23" max="23" width="2.6640625" customWidth="1"/>
     <col min="24" max="24" width="2" customWidth="1"/>
-    <col min="25" max="25" width="1.7109375" customWidth="1"/>
-    <col min="26" max="26" width="1.85546875" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" customWidth="1"/>
-    <col min="28" max="28" width="2.7109375" customWidth="1"/>
+    <col min="25" max="25" width="1.6640625" customWidth="1"/>
+    <col min="26" max="26" width="1.88671875" customWidth="1"/>
+    <col min="27" max="27" width="4.33203125" customWidth="1"/>
+    <col min="28" max="28" width="2.6640625" customWidth="1"/>
     <col min="29" max="29" width="2" customWidth="1"/>
-    <col min="30" max="30" width="1.85546875" customWidth="1"/>
-    <col min="31" max="31" width="1.7109375" customWidth="1"/>
-    <col min="32" max="32" width="1.5703125" customWidth="1"/>
-    <col min="33" max="33" width="2.140625" customWidth="1"/>
-    <col min="34" max="34" width="3.28515625" customWidth="1"/>
-    <col min="35" max="35" width="2.28515625" customWidth="1"/>
-    <col min="36" max="36" width="3.140625" customWidth="1"/>
-    <col min="37" max="37" width="2.42578125" customWidth="1"/>
-    <col min="38" max="38" width="3.28515625" customWidth="1"/>
-    <col min="39" max="39" width="2.7109375" customWidth="1"/>
-    <col min="40" max="40" width="3.140625" customWidth="1"/>
-    <col min="41" max="41" width="1.85546875" customWidth="1"/>
-    <col min="42" max="42" width="3.28515625" customWidth="1"/>
+    <col min="30" max="30" width="1.88671875" customWidth="1"/>
+    <col min="31" max="31" width="1.6640625" customWidth="1"/>
+    <col min="32" max="32" width="1.5546875" customWidth="1"/>
+    <col min="33" max="33" width="2.109375" customWidth="1"/>
+    <col min="34" max="34" width="3.33203125" customWidth="1"/>
+    <col min="35" max="35" width="2.33203125" customWidth="1"/>
+    <col min="36" max="36" width="3.109375" customWidth="1"/>
+    <col min="37" max="37" width="2.44140625" customWidth="1"/>
+    <col min="38" max="38" width="3.33203125" customWidth="1"/>
+    <col min="39" max="39" width="2.6640625" customWidth="1"/>
+    <col min="40" max="40" width="3.109375" customWidth="1"/>
+    <col min="41" max="41" width="1.88671875" customWidth="1"/>
+    <col min="42" max="42" width="3.33203125" customWidth="1"/>
     <col min="43" max="43" width="3" customWidth="1"/>
-    <col min="44" max="44" width="2.5703125" customWidth="1"/>
-    <col min="45" max="45" width="1.85546875" customWidth="1"/>
-    <col min="46" max="46" width="3.28515625" customWidth="1"/>
-    <col min="47" max="47" width="2.28515625" customWidth="1"/>
-    <col min="48" max="48" width="2.7109375" customWidth="1"/>
-    <col min="49" max="49" width="3.140625" customWidth="1"/>
+    <col min="44" max="44" width="2.5546875" customWidth="1"/>
+    <col min="45" max="45" width="1.88671875" customWidth="1"/>
+    <col min="46" max="46" width="3.33203125" customWidth="1"/>
+    <col min="47" max="47" width="2.33203125" customWidth="1"/>
+    <col min="48" max="48" width="2.6640625" customWidth="1"/>
+    <col min="49" max="49" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15" thickTop="1">
@@ -6759,14 +6770,20 @@
       <c r="D147" s="31">
         <v>2</v>
       </c>
-      <c r="E147" s="32"/>
+      <c r="E147" s="32" t="s">
+        <v>144</v>
+      </c>
       <c r="F147" s="33"/>
-      <c r="G147" s="34"/>
+      <c r="G147" s="34" t="s">
+        <v>145</v>
+      </c>
       <c r="H147" s="35"/>
       <c r="I147" s="35"/>
       <c r="J147" s="35"/>
       <c r="K147" s="36"/>
-      <c r="L147" s="37"/>
+      <c r="L147" s="37" t="s">
+        <v>147</v>
+      </c>
       <c r="M147" s="35"/>
       <c r="N147" s="35"/>
       <c r="O147" s="35"/>
@@ -6776,7 +6793,9 @@
       <c r="S147" s="35"/>
       <c r="T147" s="35"/>
       <c r="U147" s="38"/>
-      <c r="V147" s="32"/>
+      <c r="V147" s="32" t="s">
+        <v>146</v>
+      </c>
       <c r="W147" s="33"/>
       <c r="X147" s="34"/>
       <c r="Y147" s="35"/>
@@ -7367,58 +7386,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW190"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="0.7109375" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" customWidth="1"/>
-    <col min="10" max="12" width="1.5703125" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" customWidth="1"/>
-    <col min="14" max="14" width="1.5703125" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="19" width="2.28515625" customWidth="1"/>
-    <col min="20" max="20" width="1.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" customWidth="1"/>
+    <col min="10" max="12" width="1.5546875" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.5546875" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" customWidth="1"/>
+    <col min="17" max="17" width="2.33203125" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
+    <col min="19" max="19" width="2.33203125" customWidth="1"/>
+    <col min="20" max="20" width="1.5546875" customWidth="1"/>
     <col min="21" max="21" width="3" customWidth="1"/>
-    <col min="22" max="22" width="4.7109375" customWidth="1"/>
-    <col min="23" max="23" width="1.7109375" customWidth="1"/>
-    <col min="24" max="24" width="1.28515625" customWidth="1"/>
-    <col min="25" max="25" width="2.42578125" customWidth="1"/>
-    <col min="26" max="26" width="1.7109375" customWidth="1"/>
-    <col min="27" max="27" width="2.28515625" customWidth="1"/>
-    <col min="28" max="29" width="2.140625" customWidth="1"/>
-    <col min="30" max="30" width="2.28515625" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" customWidth="1"/>
+    <col min="23" max="23" width="1.6640625" customWidth="1"/>
+    <col min="24" max="24" width="1.33203125" customWidth="1"/>
+    <col min="25" max="25" width="2.44140625" customWidth="1"/>
+    <col min="26" max="26" width="1.6640625" customWidth="1"/>
+    <col min="27" max="27" width="2.33203125" customWidth="1"/>
+    <col min="28" max="29" width="2.109375" customWidth="1"/>
+    <col min="30" max="30" width="2.33203125" customWidth="1"/>
     <col min="31" max="31" width="2" customWidth="1"/>
-    <col min="32" max="32" width="2.42578125" customWidth="1"/>
+    <col min="32" max="32" width="2.44140625" customWidth="1"/>
     <col min="33" max="34" width="3" customWidth="1"/>
-    <col min="35" max="35" width="2.140625" customWidth="1"/>
-    <col min="36" max="36" width="2.42578125" customWidth="1"/>
-    <col min="37" max="37" width="3.5703125" customWidth="1"/>
-    <col min="38" max="38" width="2.85546875" customWidth="1"/>
-    <col min="39" max="39" width="3.140625" customWidth="1"/>
-    <col min="40" max="40" width="3.7109375" customWidth="1"/>
-    <col min="41" max="41" width="3.140625" customWidth="1"/>
+    <col min="35" max="35" width="2.109375" customWidth="1"/>
+    <col min="36" max="36" width="2.44140625" customWidth="1"/>
+    <col min="37" max="37" width="3.5546875" customWidth="1"/>
+    <col min="38" max="38" width="2.88671875" customWidth="1"/>
+    <col min="39" max="39" width="3.109375" customWidth="1"/>
+    <col min="40" max="40" width="3.6640625" customWidth="1"/>
+    <col min="41" max="41" width="3.109375" customWidth="1"/>
     <col min="42" max="42" width="3" customWidth="1"/>
-    <col min="43" max="45" width="2.7109375" customWidth="1"/>
-    <col min="46" max="46" width="2.85546875" customWidth="1"/>
-    <col min="47" max="47" width="2.42578125" customWidth="1"/>
-    <col min="48" max="48" width="3.5703125" customWidth="1"/>
-    <col min="49" max="49" width="4.5703125" customWidth="1"/>
+    <col min="43" max="45" width="2.6640625" customWidth="1"/>
+    <col min="46" max="46" width="2.88671875" customWidth="1"/>
+    <col min="47" max="47" width="2.44140625" customWidth="1"/>
+    <col min="48" max="48" width="3.5546875" customWidth="1"/>
+    <col min="49" max="49" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15" thickTop="1">
@@ -9525,7 +9544,7 @@
       <c r="AA148" s="5"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="3:47" ht="14.45" customHeight="1">
+    <row r="149" spans="3:47" ht="14.4" customHeight="1">
       <c r="C149" s="5"/>
       <c r="D149" s="1" t="s">
         <v>119</v>
